--- a/uft-one-ai-ai-solman-start-tbom-recording/Default.xlsx
+++ b/uft-one-ai-ai-solman-start-tbom-recording/Default.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="01_Login" sheetId="2" r:id="rId2"/>
     <sheet name="02_Find_Work_Item" sheetId="3" r:id="rId3"/>
+    <sheet name="03_Start_TBOM_by_Work_Item_ID" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>BrowserName</t>
   </si>
@@ -30,31 +31,34 @@
     <t>https://sap-sm.mfdemoportal.com:50001/sap/bc/webdynpro/sap/smud_frame?sap-client=001&amp;sap-language=EN#</t>
   </si>
   <si>
+    <t>co03</t>
+  </si>
+  <si>
+    <t>WorkItemNumber</t>
+  </si>
+  <si>
+    <t>BP_Expert</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>Tbom@2022</t>
   </si>
   <si>
+    <t>WorkItemsURL</t>
+  </si>
+  <si>
     <t>TCode</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>co02</t>
-  </si>
-  <si>
-    <t>English</t>
+    <t>https://sap-sm.mfdemoportal.com:50001/sap/bc/ui2/flp?sap-client=001&amp;sap-language=EN#Action-MyTasksBOM?VIEW_ID=TBWI&amp;STANDALONE_MODE=X</t>
   </si>
 </sst>
 </file>
@@ -235,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -244,9 +248,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -545,21 +546,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="12.859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.41796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.94140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.41796875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.94140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="126.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
@@ -567,22 +570,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -592,20 +598,21 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>302</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -636,6 +643,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
